--- a/data/trans_bre/POLIPATOLOGIA_DISC-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/POLIPATOLOGIA_DISC-Habitat-trans_bre.xlsx
@@ -673,17 +673,17 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,1; 26,98</t>
+          <t>7,34; 27,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 19,47</t>
+          <t>-2,35; 18,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,0; 13,98</t>
+          <t>-6,55; 13,73</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,17 +693,17 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>63,29; 662,51</t>
+          <t>63,5; 689,21</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-11,1; 207,65</t>
+          <t>-17,09; 171,32</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-22,52; 97,34</t>
+          <t>-23,25; 90,41</t>
         </is>
       </c>
     </row>
@@ -773,17 +773,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,38; 15,37</t>
+          <t>6,75; 16,63</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,3; 19,92</t>
+          <t>11,52; 20,19</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,45; 12,32</t>
+          <t>3,18; 12,18</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -793,17 +793,17 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>40,66; 137,5</t>
+          <t>46,22; 165,98</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>110,83; 302,81</t>
+          <t>114,49; 308,58</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>21,03; 97,97</t>
+          <t>18,04; 91,32</t>
         </is>
       </c>
     </row>
@@ -873,17 +873,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,27; 13,47</t>
+          <t>6,62; 13,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,09; 12,29</t>
+          <t>6,33; 12,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,82; 16,92</t>
+          <t>11,06; 17,12</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -893,17 +893,17 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>43,52; 120,16</t>
+          <t>46,41; 126,42</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>53,12; 145,59</t>
+          <t>58,09; 150,68</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>91,77; 207,56</t>
+          <t>99,04; 210,95</t>
         </is>
       </c>
     </row>
@@ -973,17 +973,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,83; 10,61</t>
+          <t>2,94; 10,41</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,82; 12,84</t>
+          <t>5,66; 13,01</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 11,44</t>
+          <t>-0,48; 11,23</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,17 +993,17 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>19,53; 104,4</t>
+          <t>21,35; 104,46</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>54,15; 172,71</t>
+          <t>52,12; 169,81</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,83; 112,45</t>
+          <t>-1,62; 105,95</t>
         </is>
       </c>
     </row>
@@ -1073,17 +1073,17 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,34; 14,04</t>
+          <t>7,23; 14,08</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,65; 12,88</t>
+          <t>6,41; 12,68</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>8,11; 14,85</t>
+          <t>8,31; 14,53</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1093,17 +1093,17 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>57,48; 144,96</t>
+          <t>56,82; 149,39</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>65,77; 170,02</t>
+          <t>63,33; 172,12</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>56,43; 131,84</t>
+          <t>57,2; 126,7</t>
         </is>
       </c>
     </row>
@@ -1173,17 +1173,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,93; 11,6</t>
+          <t>8,12; 11,73</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>8,57; 12,0</t>
+          <t>8,42; 11,96</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>8,03; 12,14</t>
+          <t>8,01; 12,4</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1193,17 +1193,17 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>63,17; 106,61</t>
+          <t>64,17; 106,39</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>86,27; 138,34</t>
+          <t>83,12; 137,77</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>61,19; 106,28</t>
+          <t>61,23; 106,94</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/POLIPATOLOGIA_DISC-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/POLIPATOLOGIA_DISC-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -673,12 +673,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,34; 27,29</t>
+          <t>7,23; 26,93</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 18,09</t>
+          <t>-2,35; 18,48</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -693,12 +693,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>63,5; 689,21</t>
+          <t>57,16; 679,95</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-17,09; 171,32</t>
+          <t>-14,13; 185,96</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -773,12 +773,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,75; 16,63</t>
+          <t>6,45; 16,16</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,52; 20,19</t>
+          <t>11,66; 20,14</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -793,12 +793,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>46,22; 165,98</t>
+          <t>40,53; 148,98</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>114,49; 308,58</t>
+          <t>108,03; 311,05</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,62; 13,48</t>
+          <t>6,75; 13,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,33; 12,78</t>
+          <t>6,2; 12,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -893,12 +893,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>46,41; 126,42</t>
+          <t>48,22; 121,01</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>58,09; 150,68</t>
+          <t>53,91; 143,66</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -973,12 +973,12 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,94; 10,41</t>
+          <t>2,73; 10,45</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,66; 13,01</t>
+          <t>5,78; 12,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -993,12 +993,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>21,35; 104,46</t>
+          <t>19,23; 104,04</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>52,12; 169,81</t>
+          <t>53,93; 167,65</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1073,12 +1073,12 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,23; 14,08</t>
+          <t>7,38; 13,84</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,41; 12,68</t>
+          <t>6,21; 12,8</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1093,12 +1093,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>56,82; 149,39</t>
+          <t>58,17; 146,95</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>63,33; 172,12</t>
+          <t>60,59; 168,78</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1173,12 +1173,12 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,12; 11,73</t>
+          <t>7,95; 11,62</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>8,42; 11,96</t>
+          <t>8,63; 12,13</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1193,12 +1193,12 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>64,17; 106,39</t>
+          <t>61,81; 105,55</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>83,12; 137,77</t>
+          <t>86,46; 141,74</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">

--- a/data/trans_bre/POLIPATOLOGIA_DISC-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/POLIPATOLOGIA_DISC-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -673,17 +673,17 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,23; 26,93</t>
+          <t>8,1; 26,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 18,48</t>
+          <t>-1,51; 19,47</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,55; 13,73</t>
+          <t>-6,0; 13,98</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,17 +693,17 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>57,16; 679,95</t>
+          <t>63,29; 662,51</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-14,13; 185,96</t>
+          <t>-11,1; 207,65</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-23,25; 90,41</t>
+          <t>-22,52; 97,34</t>
         </is>
       </c>
     </row>
@@ -773,17 +773,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,45; 16,16</t>
+          <t>6,38; 15,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,66; 20,14</t>
+          <t>11,3; 19,92</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,18; 12,18</t>
+          <t>3,45; 12,32</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -793,17 +793,17 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>40,53; 148,98</t>
+          <t>40,66; 137,5</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>108,03; 311,05</t>
+          <t>110,83; 302,81</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>18,04; 91,32</t>
+          <t>21,03; 97,97</t>
         </is>
       </c>
     </row>
@@ -873,17 +873,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,75; 13,26</t>
+          <t>6,27; 13,47</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,2; 12,58</t>
+          <t>6,09; 12,29</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,06; 17,12</t>
+          <t>10,82; 16,92</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -893,17 +893,17 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>48,22; 121,01</t>
+          <t>43,52; 120,16</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>53,91; 143,66</t>
+          <t>53,12; 145,59</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>99,04; 210,95</t>
+          <t>91,77; 207,56</t>
         </is>
       </c>
     </row>
@@ -973,17 +973,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,73; 10,45</t>
+          <t>2,83; 10,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,78; 12,73</t>
+          <t>5,82; 12,84</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 11,23</t>
+          <t>-0,39; 11,44</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,17 +993,17 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>19,23; 104,04</t>
+          <t>19,53; 104,4</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>53,93; 167,65</t>
+          <t>54,15; 172,71</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 105,95</t>
+          <t>0,83; 112,45</t>
         </is>
       </c>
     </row>
@@ -1073,17 +1073,17 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,38; 13,84</t>
+          <t>7,34; 14,04</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,21; 12,8</t>
+          <t>6,65; 12,88</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>8,31; 14,53</t>
+          <t>8,11; 14,85</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1093,17 +1093,17 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>58,17; 146,95</t>
+          <t>57,48; 144,96</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>60,59; 168,78</t>
+          <t>65,77; 170,02</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>57,2; 126,7</t>
+          <t>56,43; 131,84</t>
         </is>
       </c>
     </row>
@@ -1173,17 +1173,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,95; 11,62</t>
+          <t>7,93; 11,6</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>8,63; 12,13</t>
+          <t>8,57; 12,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>8,01; 12,4</t>
+          <t>8,03; 12,14</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1193,17 +1193,17 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>61,81; 105,55</t>
+          <t>63,17; 106,61</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>86,46; 141,74</t>
+          <t>86,27; 138,34</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>61,23; 106,94</t>
+          <t>61,19; 106,28</t>
         </is>
       </c>
     </row>
